--- a/4_Radiation/Embedded_Qs/4_1_Embedded_Qs.xlsx
+++ b/4_Radiation/Embedded_Qs/4_1_Embedded_Qs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="165" yWindow="1230" windowWidth="14070" windowHeight="13260" activeTab="5"/>
+    <workbookView xWindow="165" yWindow="1230" windowWidth="14070" windowHeight="13260" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="114">
   <si>
     <t>Correct</t>
   </si>
@@ -359,6 +359,39 @@
   </si>
   <si>
     <t xml:space="preserve">60% of the radiation is aborbed, while 30% is reflected.  This leaves 10% (or 10 W/m2) to be transmitted through the surface.   </t>
+  </si>
+  <si>
+    <t>In the image above, what happens to the solid angle subtended by the receiving surface if theta_rec gets smaller?</t>
+  </si>
+  <si>
+    <t>The solid angle gets smaller</t>
+  </si>
+  <si>
+    <t>The solid angle stays the same</t>
+  </si>
+  <si>
+    <t>The solid angle gets larger</t>
+  </si>
+  <si>
+    <t>The solid angle omega would get smaller the farther the receiving surface tilts away from "facing" directly at the emitting surface.</t>
+  </si>
+  <si>
+    <t>In the image above, why does the heat transfer between the two surfaces get smaller when theta_emit gets smaller?</t>
+  </si>
+  <si>
+    <t>When theta_emit is smaller, the projected area of the emitting surface becomes smaller</t>
+  </si>
+  <si>
+    <t>When theta_emit is smaller, the projected area of the emitting surface becomes larger</t>
+  </si>
+  <si>
+    <t>When theta_emit is smaller, the solid angle of the emitting surface becomes smaller</t>
+  </si>
+  <si>
+    <t>When theta_emit is smaller, the solid angle of the emitting surface becomes larger</t>
+  </si>
+  <si>
+    <t>Essentially, less of the emitting surface is "facing" the receiving surface, so there is less heat transfer between the two.   To understand that, imagine that theta_emit approaches 0 degrees: at that point the emitting surface would no longer have a path through which it could send radiation to the receiving surface.</t>
   </si>
 </sst>
 </file>
@@ -1637,7 +1670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1709,8 +1742,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,8 +1818,10 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1730,87 +1829,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:3" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>110</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
